--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1026294.767997846</v>
+        <v>-1028182.349514249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>206.1702321836828</v>
+        <v>73.42632274556672</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>38.96575664273649</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>197.9240804051652</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>343.167550209759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>34.12924797235455</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2713935802968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.4224538793233</v>
+        <v>304.5338154975313</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>91.82580793753526</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.82580793753503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.61661699143606</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>170.5809693952287</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385001</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>90.2086001556786</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.31583361796027</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>59.49750230859922</v>
+        <v>170.7807903390804</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.646004125382335</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>46.00555962229928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>88.83679808884779</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>115.8723908590321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>91.94988401775019</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>168.4074417620226</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437393</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>81.41484040883758</v>
       </c>
       <c r="I31" t="n">
-        <v>6.749002612118844</v>
+        <v>55.21598883571468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523549</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373747</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1549.547090562791</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="C2" t="n">
-        <v>1180.58457362238</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="D2" t="n">
-        <v>822.3188750156294</v>
+        <v>1092.274522047835</v>
       </c>
       <c r="E2" t="n">
-        <v>436.5306224173851</v>
+        <v>706.4862694495912</v>
       </c>
       <c r="F2" t="n">
-        <v>429.5851216681817</v>
+        <v>295.5003646599836</v>
       </c>
       <c r="G2" t="n">
-        <v>415.6617176067726</v>
+        <v>281.5769605985745</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y2" t="n">
-        <v>1936.146930626913</v>
+        <v>1837.140060718708</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>688.7696340622559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.4755035807</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4626,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>693.654996355571</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>693.654996355571</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>693.654996355571</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>693.654996355571</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.0286321745434</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C8" t="n">
-        <v>614.0661152341316</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,37 +4893,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D10" t="n">
         <v>380.6911546495019</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,22 +5124,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
         <v>265.3924131404652</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1326.612261067772</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1326.612261067772</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1037.48362228133</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>782.7991340754432</v>
+        <v>844.0280401273989</v>
       </c>
       <c r="W13" t="n">
-        <v>493.3819640384826</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="X13" t="n">
-        <v>265.3924131404653</v>
+        <v>326.6213191924209</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404653</v>
+        <v>326.6213191924209</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>506.930219729571</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>506.930219729571</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471132</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974661</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980058</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119722</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119722</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909228</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909228</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>909.3712637033408</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259998</v>
+        <v>909.3712637033408</v>
       </c>
       <c r="X16" t="n">
-        <v>745.0706109654338</v>
+        <v>909.3712637033408</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.0706109654338</v>
+        <v>688.5786845598107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5552,13 +5552,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003199</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141522</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="W19" t="n">
-        <v>960.3478799611183</v>
+        <v>1326.410421730548</v>
       </c>
       <c r="X19" t="n">
-        <v>732.358329063101</v>
+        <v>1098.42087083253</v>
       </c>
       <c r="Y19" t="n">
-        <v>732.358329063101</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277037</v>
       </c>
       <c r="L21" t="n">
-        <v>638.3691419079764</v>
+        <v>901.6749225845925</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831247</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.9563154684963</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>983.3294851211871</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.867621687013</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X22" t="n">
-        <v>963.3973594422661</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.604780298736</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1185.396715863723</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570737</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W25" t="n">
-        <v>531.1091870201132</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X25" t="n">
-        <v>414.0663679705859</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y25" t="n">
-        <v>414.0663679705859</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.554780404982</v>
+        <v>190.095762185286</v>
       </c>
       <c r="C28" t="n">
-        <v>692.554780404982</v>
+        <v>190.095762185286</v>
       </c>
       <c r="D28" t="n">
-        <v>542.4381409926463</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102531</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123428</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123428</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1128.887733441109</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>874.2032452352217</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W28" t="n">
-        <v>874.2032452352217</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="X28" t="n">
-        <v>874.2032452352217</v>
+        <v>592.5368061590559</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.2032452352217</v>
+        <v>371.7442270155258</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1908.095276920732</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2187.63534213943</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110241</v>
+        <v>439.5324299542219</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644881</v>
+        <v>326.3571123076861</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335233</v>
+        <v>326.3571123076861</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480325008</v>
+        <v>326.3571123076861</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159615</v>
+        <v>235.2280300911468</v>
       </c>
       <c r="G31" t="n">
-        <v>104.0342658159615</v>
+        <v>235.2280300911468</v>
       </c>
       <c r="H31" t="n">
-        <v>104.0342658159615</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962062</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356662002</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737486</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386986</v>
+        <v>902.6804289818961</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220521</v>
+        <v>730.4517433652497</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598929</v>
+        <v>565.4200295030906</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,49 +6698,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,22 +6783,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6956,7 +6956,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7020,22 +7020,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>553.0935746802517</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1321.461721072713</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,25 +7096,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7415,25 +7415,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,16 +7497,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,13 +7810,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1350559470645</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503179</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>104.8749102765748</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863211</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>19.14409596997069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>145.2351313103796</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,25 +10431,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>188.8856946302407</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>18.73797368291343</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>274.3657496970646</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2863157167186</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>381.3739760657751</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.2153631905012</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>27.3398405883745</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.40687286253376</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.3938217710769</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>227.0254960279918</v>
+        <v>115.7422079975106</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>249.4916391984457</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>179.7040957667379</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>197.4005543097296</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>109.8372645300051</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>56.66558900046216</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>117.8299106365548</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965504</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801186</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>12.29573133014124</v>
       </c>
       <c r="I31" t="n">
-        <v>48.46698622359596</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
         <v>156411.6238950835</v>
@@ -26326,7 +26326,7 @@
         <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950836</v>
@@ -26335,7 +26335,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
         <v>162728.8549381078</v>
@@ -26347,10 +26347,10 @@
         <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728568</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.964064596104436e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284596</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086678</v>
+        <v>10342.90680086667</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284588</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143916</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563569</v>
+        <v>33210.29213563572</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26479,22 +26479,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26503,10 +26503,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-665393.5615563198</v>
       </c>
       <c r="C6" t="n">
-        <v>-75425.68234177548</v>
+        <v>-75425.68234177539</v>
       </c>
       <c r="D6" t="n">
-        <v>-75425.68234177545</v>
+        <v>-75425.68234177542</v>
       </c>
       <c r="E6" t="n">
-        <v>-475781.4081519684</v>
+        <v>-475878.8672779404</v>
       </c>
       <c r="F6" t="n">
-        <v>49378.6283249277</v>
+        <v>49281.16919895554</v>
       </c>
       <c r="G6" t="n">
-        <v>49378.62832492779</v>
+        <v>49281.16919895548</v>
       </c>
       <c r="H6" t="n">
-        <v>49378.62832492782</v>
+        <v>49281.16919895496</v>
       </c>
       <c r="I6" t="n">
-        <v>49378.62832492779</v>
+        <v>49281.16919895564</v>
       </c>
       <c r="J6" t="n">
-        <v>-127044.5908676652</v>
+        <v>-127142.0499936374</v>
       </c>
       <c r="K6" t="n">
-        <v>-11272.25103059641</v>
+        <v>-11290.74476853103</v>
       </c>
       <c r="L6" t="n">
-        <v>18685.88448920501</v>
+        <v>18685.88448920514</v>
       </c>
       <c r="M6" t="n">
         <v>-105772.2239437653</v>
       </c>
       <c r="N6" t="n">
-        <v>29028.79129007176</v>
+        <v>29028.79129007182</v>
       </c>
       <c r="O6" t="n">
-        <v>29028.79129007185</v>
+        <v>29028.79129007173</v>
       </c>
       <c r="P6" t="n">
-        <v>-15133.81401277395</v>
+        <v>-15133.81401277406</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108334</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>117.7525405806744</v>
+        <v>250.4964500187904</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>22.54869530067504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6188967093583</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>184.8097612583154</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.07038844629454</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>178.0162909776644</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>96.25160475629423</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.31138778415726</v>
+        <v>78.20002616594928</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>56.7896650806771</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.7588454145598</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-3.689546683711769e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>481.3296293450774</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>418.4946367192911</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789666</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.987089538257</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L21" t="n">
-        <v>354.1326152325991</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504666</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>331.433493017846</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>268.401800925995</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>598.833559628142</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>352.3285462419043</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412283</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043206</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>471.2493968713488</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>267.9956786389377</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
@@ -37406,7 +37406,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>584.7901267475308</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>451.6500179578267</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>691.7983531162413</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
